--- a/Example2.xlsx
+++ b/Example2.xlsx
@@ -14,66 +14,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>‘ q</t>
-  </si>
-  <si>
-    <t>“s</t>
-  </si>
-  <si>
-    <t>@ DUTCH BANGLA BANK</t>
-  </si>
-  <si>
-    <t>Transaction Sum pee enterprise</t>
-  </si>
-  <si>
-    <t>Customer Co</t>
-  </si>
-  <si>
-    <t>woes con 1094643</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>JUTCH-BANGLA BANK LIMITED</t>
+  </si>
+  <si>
+    <t>ACADEMY MR FT-2 CHUA</t>
+  </si>
+  <si>
+    <t>DATE IME TERMINAL 1D</t>
+  </si>
+  <si>
+    <t>12/12/21 09:34:01 25134094 _</t>
+  </si>
+  <si>
+    <t>le Dentw Eker</t>
+  </si>
+  <si>
+    <t>ARD NO #:XXXXXXXXXXXXXXXIO 14</t>
+  </si>
+  <si>
+    <t>(oO SZ4 |</t>
+  </si>
+  <si>
+    <t>TXN NO. 00325472 RESP CODE: 0</t>
+  </si>
+  <si>
+    <t>FUNDS TRANSFER</t>
+  </si>
+  <si>
+    <t>FR A/CH: 1351010120022</t>
+  </si>
+  <si>
+    <t>TO A/C#: 1031100022462</t>
+  </si>
+  <si>
+    <t>TXN AMOUNT: TK 52.00 soe"</t>
+  </si>
+  <si>
+    <t>AVAIL BAL : TK. se</t>
+  </si>
+  <si>
+    <t>Cok ES,</t>
+  </si>
+  <si>
+    <t>EMV APP ID: F0504442420110</t>
+  </si>
+  <si>
+    <t>THANK YOU FOR USING</t>
+  </si>
+  <si>
+    <t>OBBL NETWORK</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Transaction Type: Fund Transfer po- 12731</t>
-  </si>
-  <si>
-    <t>Transaction ID : 102674119</t>
-  </si>
-  <si>
-    <t>Date : December 02, 2021</t>
-  </si>
-  <si>
-    <t>Initiator : 01711486765</t>
-  </si>
-  <si>
-    <t>From Account : 7017512561124</t>
-  </si>
-  <si>
-    <t>Account Name : MD.FAZLERABBI</t>
-  </si>
-  <si>
-    <t>To Account : 1031100022462</t>
-  </si>
-  <si>
-    <t>Account Name : RICECO INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>Amount : 27076.0</t>
-  </si>
-  <si>
-    <t>Fee 254.15</t>
-  </si>
-  <si>
-    <t>Generated Time = 2021/12/02 14:40:55</t>
-  </si>
-  <si>
-    <t>Teller Signature Customer Signature</t>
-  </si>
-  <si>
-    <t>This is a system generated report of DBBL</t>
   </si>
   <si>
     <t>_x000C_</t>
@@ -408,115 +402,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="X1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="Z1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="AA1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="AB1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="AD1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="AE1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Example2.xlsx
+++ b/Example2.xlsx
@@ -14,48 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>JUTCH-BANGLA BANK LIMITED</t>
   </si>
   <si>
-    <t>ACADEMY MR FT-2 CHUA</t>
+    <t>A\CADEMY MR FT=2 CHUA</t>
   </si>
   <si>
     <t>DATE IME TERMINAL 1D</t>
   </si>
   <si>
-    <t>12/12/21 09:34:01 25134094 _</t>
-  </si>
-  <si>
-    <t>le Dentw Eker</t>
-  </si>
-  <si>
-    <t>ARD NO #:XXXXXXXXXXXXXXXIO 14</t>
-  </si>
-  <si>
-    <t>(oO SZ4 |</t>
-  </si>
-  <si>
-    <t>TXN NO. 00325472 RESP CODE: 0</t>
+    <t>12/12/21 09:34:01 25134094 P</t>
+  </si>
+  <si>
+    <t>M/S Amin |5</t>
+  </si>
+  <si>
+    <t>CARD NO # xxxxxxxxxxxxxxx‘;n,rla</t>
+  </si>
+  <si>
+    <t>09SFY|</t>
+  </si>
+  <si>
+    <t>TXN NO. 00325472 RESP CODE: O</t>
   </si>
   <si>
     <t>FUNDS TRANSFER</t>
   </si>
   <si>
-    <t>FR A/CH: 1351010120022</t>
+    <t>FR A/C#: 1351010120022</t>
   </si>
   <si>
     <t>TO A/C#: 1031100022462</t>
   </si>
   <si>
-    <t>TXN AMOUNT: TK 52.00 soe"</t>
-  </si>
-  <si>
-    <t>AVAIL BAL : TK. se</t>
-  </si>
-  <si>
-    <t>Cok ES,</t>
+    <t>TXN AMOUNT: TK 52.00 52_7;-"</t>
+  </si>
+  <si>
+    <t>AVAIL BAL : TK. AT</t>
+  </si>
+  <si>
+    <t>@W’L{ /3'4</t>
   </si>
   <si>
     <t>EMV APP ID: F0504442420110</t>
@@ -64,13 +64,7 @@
     <t>THANK YOU FOR USING</t>
   </si>
   <si>
-    <t>OBBL NETWORK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>_x000C_</t>
+    <t>DBBL NETWORK</t>
   </si>
 </sst>
 </file>
@@ -402,69 +396,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
       <c r="S1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s">
         <v>12</v>
       </c>
+      <c r="U1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
       <c r="X1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
